--- a/BiblioAnalysis_Utils/BiblioAnalysis_RefFiles/Country_affiliations.xlsx
+++ b/BiblioAnalysis_Utils/BiblioAnalysis_RefFiles/Country_affiliations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amal/My_Jupyter/BiblioAnalysis/BiblioAnalysis_Utils/BiblioAnalysis_RefFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431DEE8F-87A2-BC45-8F54-7320F3EA8808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136AEBA4-FDDC-1D40-8B4B-5F0FACF7EBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30140" yWindow="-440" windowWidth="26220" windowHeight="15300" firstSheet="8" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46660" yWindow="780" windowWidth="43040" windowHeight="17480" firstSheet="8" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Algeria" sheetId="6" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9559" uniqueCount="3196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9563" uniqueCount="3201">
   <si>
     <t>G-INP Sch</t>
   </si>
@@ -6477,9 +6477,6 @@
     <t>Réseau sur le Stockage Électrochimique de l'Énergie</t>
   </si>
   <si>
-    <t>Reseau Sur Stockage Electrochim Energie</t>
-  </si>
-  <si>
     <t>SMS</t>
   </si>
   <si>
@@ -6861,18 +6858,12 @@
     <t>LMFL</t>
   </si>
   <si>
-    <t xml:space="preserve"> Laboratoire des Matériaux et du Génie Physique</t>
-  </si>
-  <si>
     <t>UMR 5628</t>
   </si>
   <si>
     <t>LMO</t>
   </si>
   <si>
-    <t xml:space="preserve"> UMR 8628</t>
-  </si>
-  <si>
     <t>LMPS</t>
   </si>
   <si>
@@ -9652,6 +9643,30 @@
   </si>
   <si>
     <t>Ponts Paritech Sch</t>
+  </si>
+  <si>
+    <t>Reseau Stockage Electrochimique Energie</t>
+  </si>
+  <si>
+    <t>Coll France</t>
+  </si>
+  <si>
+    <t>Chimie du Solide et de l'Energie</t>
+  </si>
+  <si>
+    <t>Commissariat A l'Energie Atomique</t>
+  </si>
+  <si>
+    <t>Commissariat à lEnergie Atomique et aux Energies Alternatives</t>
+  </si>
+  <si>
+    <t>EA682</t>
+  </si>
+  <si>
+    <t>UMR 8628</t>
+  </si>
+  <si>
+    <t>Laboratoire des Matériaux et du Génie Physique</t>
   </si>
 </sst>
 </file>
@@ -10163,113 +10178,113 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="B2" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="B3" t="s">
-        <v>2410</v>
+        <v>2407</v>
       </c>
       <c r="C3" t="s">
-        <v>2411</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="B4" t="s">
-        <v>2399</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="B5" t="s">
-        <v>2401</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2412</v>
+        <v>2409</v>
       </c>
       <c r="B6" t="s">
-        <v>2413</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
       <c r="B7" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
       <c r="C7" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
       <c r="B8" t="s">
-        <v>2389</v>
+        <v>2386</v>
       </c>
       <c r="C8" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2406</v>
+        <v>2403</v>
       </c>
       <c r="B9" t="s">
-        <v>2407</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
       <c r="B10" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2408</v>
+        <v>2405</v>
       </c>
       <c r="B11" t="s">
-        <v>2409</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
       <c r="B12" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2389</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2390</v>
+      </c>
+      <c r="D13" t="s">
         <v>2391</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2392</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2393</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2394</v>
       </c>
     </row>
   </sheetData>
@@ -10310,101 +10325,101 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2453</v>
+        <v>2450</v>
       </c>
       <c r="B2" t="s">
-        <v>2454</v>
+        <v>2451</v>
       </c>
       <c r="C2" t="s">
-        <v>2455</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2456</v>
+        <v>2453</v>
       </c>
       <c r="B3" t="s">
-        <v>2457</v>
+        <v>2454</v>
       </c>
       <c r="C3" t="s">
-        <v>2458</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2459</v>
+        <v>2456</v>
       </c>
       <c r="B4" t="s">
-        <v>2460</v>
+        <v>2457</v>
       </c>
       <c r="C4" t="s">
-        <v>2461</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2462</v>
+        <v>2459</v>
       </c>
       <c r="B5" t="s">
-        <v>2463</v>
+        <v>2460</v>
       </c>
       <c r="C5" t="s">
-        <v>2464</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2465</v>
+        <v>2462</v>
       </c>
       <c r="B6" t="s">
-        <v>2466</v>
+        <v>2463</v>
       </c>
       <c r="C6" t="s">
-        <v>2467</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2468</v>
+        <v>2465</v>
       </c>
       <c r="B7" t="s">
-        <v>2469</v>
+        <v>2466</v>
       </c>
       <c r="C7" t="s">
-        <v>2470</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2471</v>
+        <v>2468</v>
       </c>
       <c r="B8" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
       <c r="C8" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>2471</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2472</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="D9" t="s">
         <v>2474</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2475</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2476</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2477</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="B10" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
     </row>
   </sheetData>
@@ -10453,485 +10468,485 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2858</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2859</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2860</v>
+      </c>
+      <c r="D2" t="s">
         <v>2861</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2862</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2863</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2864</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="D3" t="s">
         <v>2865</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2866</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2867</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2868</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="B4" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="C4" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>2869</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2870</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2871</v>
+      </c>
+      <c r="D5" t="s">
         <v>2872</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2873</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2874</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2875</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="B6" t="s">
-        <v>2877</v>
+        <v>2874</v>
       </c>
       <c r="C6" t="s">
-        <v>2878</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2877</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2878</v>
+      </c>
+      <c r="D7" t="s">
         <v>2879</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2880</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2881</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2882</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>2880</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2881</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2882</v>
+      </c>
+      <c r="D8" t="s">
         <v>2883</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2884</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2885</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2886</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2887</v>
+        <v>2884</v>
       </c>
       <c r="B9" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="C9" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="B10" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="C10" t="s">
-        <v>2892</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="B11" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="C11" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>2890</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2891</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2892</v>
+      </c>
+      <c r="D12" t="s">
         <v>2893</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2894</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2895</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2896</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>2897</v>
+        <v>2894</v>
       </c>
       <c r="B13" t="s">
-        <v>2898</v>
+        <v>2895</v>
       </c>
       <c r="C13" t="s">
-        <v>2899</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="B14" t="s">
-        <v>2901</v>
+        <v>2898</v>
       </c>
       <c r="C14" t="s">
-        <v>2902</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>2903</v>
+        <v>2900</v>
       </c>
       <c r="B15" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="C15" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>2903</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2904</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2905</v>
+      </c>
+      <c r="D16" t="s">
         <v>2906</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2907</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2908</v>
-      </c>
-      <c r="D16" t="s">
-        <v>2909</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="B17" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="C17" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>2910</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2911</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2912</v>
+      </c>
+      <c r="D18" t="s">
         <v>2913</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2914</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2915</v>
-      </c>
-      <c r="D18" t="s">
-        <v>2916</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2915</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2916</v>
+      </c>
+      <c r="D19" t="s">
         <v>2917</v>
       </c>
-      <c r="B19" t="s">
+      <c r="E19" t="s">
         <v>2918</v>
       </c>
-      <c r="C19" t="s">
+      <c r="F19" t="s">
         <v>2919</v>
-      </c>
-      <c r="D19" t="s">
-        <v>2920</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2921</v>
-      </c>
-      <c r="F19" t="s">
-        <v>2922</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>2923</v>
+        <v>2920</v>
       </c>
       <c r="B20" t="s">
-        <v>2924</v>
+        <v>2921</v>
       </c>
       <c r="C20" t="s">
-        <v>2925</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>2923</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2924</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2925</v>
+      </c>
+      <c r="D21" t="s">
         <v>2926</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2927</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2928</v>
-      </c>
-      <c r="D21" t="s">
-        <v>2929</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>2927</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2928</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2929</v>
+      </c>
+      <c r="D22" t="s">
         <v>2930</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2931</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2932</v>
-      </c>
-      <c r="D22" t="s">
-        <v>2933</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2932</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2933</v>
+      </c>
+      <c r="D23" t="s">
         <v>2934</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2935</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2936</v>
-      </c>
-      <c r="D23" t="s">
-        <v>2937</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="B24" t="s">
-        <v>2939</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>2940</v>
+        <v>2937</v>
       </c>
       <c r="B25" t="s">
-        <v>2941</v>
+        <v>2938</v>
       </c>
       <c r="C25" t="s">
-        <v>2942</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>2940</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2941</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2942</v>
+      </c>
+      <c r="D26" t="s">
         <v>2943</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2944</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2945</v>
-      </c>
-      <c r="D26" t="s">
-        <v>2946</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="B27" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="C27" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>2947</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2948</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2949</v>
+      </c>
+      <c r="D28" t="s">
         <v>2950</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2951</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2952</v>
-      </c>
-      <c r="D28" t="s">
-        <v>2953</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>2951</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2952</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2953</v>
+      </c>
+      <c r="D29" t="s">
         <v>2954</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2955</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2956</v>
-      </c>
-      <c r="D29" t="s">
-        <v>2957</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="B30" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="C30" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="B31" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2961</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2962</v>
+      </c>
+      <c r="D32" t="s">
         <v>2963</v>
-      </c>
-      <c r="B32" t="s">
-        <v>2964</v>
-      </c>
-      <c r="C32" t="s">
-        <v>2965</v>
-      </c>
-      <c r="D32" t="s">
-        <v>2966</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="B33" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="C33" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>2967</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2968</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D34" t="s">
         <v>2970</v>
       </c>
-      <c r="B34" t="s">
+      <c r="E34" t="s">
         <v>2971</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2972</v>
-      </c>
-      <c r="D34" t="s">
-        <v>2973</v>
-      </c>
-      <c r="E34" t="s">
-        <v>2974</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="B35" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="C35" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>2975</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2976</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D36" t="s">
         <v>2978</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2979</v>
-      </c>
-      <c r="C36" t="s">
-        <v>2980</v>
-      </c>
-      <c r="D36" t="s">
-        <v>2981</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="B37" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="C37" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="B38" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2988</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2989</v>
+      </c>
+      <c r="D39" t="s">
         <v>2990</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2991</v>
-      </c>
-      <c r="C39" t="s">
-        <v>2992</v>
-      </c>
-      <c r="D39" t="s">
-        <v>2993</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="B40" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
     </row>
   </sheetData>
@@ -10974,49 +10989,49 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="B2" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="C2" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="B3" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="C3" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="B4" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="C4" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3003</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3004</v>
+      </c>
+      <c r="D5" t="s">
         <v>3005</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3006</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3007</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3008</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -11024,7 +11039,7 @@
         <v>990</v>
       </c>
       <c r="B6" t="s">
-        <v>2745</v>
+        <v>2742</v>
       </c>
       <c r="C6" t="s">
         <v>319</v>
@@ -11032,49 +11047,49 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="B7" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="C7" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3010</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3011</v>
+      </c>
+      <c r="D8" t="s">
         <v>3012</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3013</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3014</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3015</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="B9" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="C9" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="B10" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="C10" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
     </row>
   </sheetData>
@@ -11119,38 +11134,38 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="B2" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="B3" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="C3" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>3024</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3025</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D4" t="s">
         <v>3027</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>3028</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3029</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3030</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3031</v>
       </c>
     </row>
   </sheetData>
@@ -11190,74 +11205,74 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="B2" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="C2" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2872</v>
+        <v>2869</v>
       </c>
       <c r="B3" t="s">
-        <v>2873</v>
+        <v>2870</v>
       </c>
       <c r="C3" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="D3" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>3033</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3034</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3035</v>
+      </c>
+      <c r="D4" t="s">
         <v>3036</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3037</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3038</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3039</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="B5" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="C5" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2746</v>
+        <v>2743</v>
       </c>
       <c r="B6" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>3041</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3042</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3043</v>
+      </c>
+      <c r="D7" t="s">
         <v>3044</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3045</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3046</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3047</v>
       </c>
     </row>
   </sheetData>
@@ -11296,199 +11311,199 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="B2" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="B3" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="C3" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="B4" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="C4" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="B5" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="C5" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="B6" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="C6" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>3062</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3063</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3064</v>
+      </c>
+      <c r="D7" t="s">
         <v>3065</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3066</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3067</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3068</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3073</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3074</v>
+      </c>
+      <c r="D8" t="s">
         <v>3075</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3076</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3077</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3078</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="B9" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="C9" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="B10" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="C10" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="B11" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="C11" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="B12" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="C12" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="B13" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="B14" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="B15" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="C15" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="B16" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="B17" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="C17" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="B18" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="B19" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="C19" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="B20" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
     </row>
   </sheetData>
@@ -11532,88 +11547,88 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="B2" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="B3" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="C3" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>3101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3103</v>
+      </c>
+      <c r="D4" t="s">
         <v>3104</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3105</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3106</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3107</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>3105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3107</v>
+      </c>
+      <c r="D5" t="s">
         <v>3108</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3109</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3110</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3111</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>3109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3111</v>
+      </c>
+      <c r="D6" t="s">
         <v>3112</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3113</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3114</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3115</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>3113</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3114</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3115</v>
+      </c>
+      <c r="D7" t="s">
         <v>3116</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3117</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3118</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3119</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="B8" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="C8" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
     </row>
   </sheetData>
@@ -11652,32 +11667,32 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="B2" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2456</v>
+        <v>2453</v>
       </c>
       <c r="B3" t="s">
-        <v>2570</v>
+        <v>2567</v>
       </c>
       <c r="C3" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="B4" t="s">
-        <v>2663</v>
+        <v>2660</v>
       </c>
       <c r="C4" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
     </row>
   </sheetData>
@@ -11712,10 +11727,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="B2" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
     </row>
   </sheetData>
@@ -11755,177 +11770,177 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="B2" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="B3" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="C3" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="B4" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="C4" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="B5" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="B6" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="C6" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="B7" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>3142</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3143</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3144</v>
+      </c>
+      <c r="D8" t="s">
         <v>3145</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3146</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3147</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3148</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="B9" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="C9" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="B10" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="C10" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="B11" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="B12" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="B13" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="C13" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>3156</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3157</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3158</v>
+      </c>
+      <c r="D14" t="s">
         <v>3159</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3160</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3161</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3162</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="B15" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="B16" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="C16" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="B17" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>3165</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3166</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3167</v>
+      </c>
+      <c r="D18" t="s">
         <v>3168</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3169</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3170</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3171</v>
       </c>
     </row>
   </sheetData>
@@ -11969,139 +11984,139 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2416</v>
+        <v>2413</v>
       </c>
       <c r="B2" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
       <c r="C2" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2419</v>
+        <v>2416</v>
       </c>
       <c r="B3" t="s">
-        <v>2420</v>
+        <v>2417</v>
       </c>
       <c r="C3" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2420</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2421</v>
+      </c>
+      <c r="D4" t="s">
         <v>2422</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2423</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2424</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2425</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2426</v>
+        <v>2423</v>
       </c>
       <c r="B5" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2428</v>
+        <v>2425</v>
       </c>
       <c r="B6" t="s">
-        <v>2429</v>
+        <v>2426</v>
       </c>
       <c r="C6" t="s">
-        <v>2430</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="B7" t="s">
-        <v>2432</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2433</v>
+        <v>2430</v>
       </c>
       <c r="B8" t="s">
-        <v>2434</v>
+        <v>2431</v>
       </c>
       <c r="C8" t="s">
-        <v>2435</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2436</v>
+        <v>2433</v>
       </c>
       <c r="B9" t="s">
-        <v>2437</v>
+        <v>2434</v>
       </c>
       <c r="C9" t="s">
-        <v>2438</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2439</v>
+        <v>2436</v>
       </c>
       <c r="B10" t="s">
-        <v>2440</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2441</v>
+        <v>2438</v>
       </c>
       <c r="B11" t="s">
-        <v>2442</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>2443</v>
+        <v>2440</v>
       </c>
       <c r="B12" t="s">
-        <v>2444</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>2442</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2443</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2444</v>
+      </c>
+      <c r="D13" t="s">
         <v>2445</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2446</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2447</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2448</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>2446</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2447</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2448</v>
+      </c>
+      <c r="D14" t="s">
         <v>2449</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2450</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2451</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2452</v>
       </c>
     </row>
   </sheetData>
@@ -12115,7 +12130,7 @@
   <dimension ref="A1:M736"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
-      <selection activeCell="A639" sqref="A639"/>
+      <selection activeCell="C223" sqref="C223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12482,7 +12497,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -12833,7 +12848,7 @@
         <v>1391</v>
       </c>
       <c r="C19" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="D19" t="s">
         <v>1517</v>
@@ -13342,7 +13357,7 @@
         <v>1389</v>
       </c>
       <c r="C32" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="F32" t="s">
         <v>1517</v>
@@ -13567,7 +13582,7 @@
         <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="D38" t="s">
         <v>1517</v>
@@ -14464,6 +14479,12 @@
       <c r="G61" t="s">
         <v>33</v>
       </c>
+      <c r="H61" t="s">
+        <v>3196</v>
+      </c>
+      <c r="I61" t="s">
+        <v>3197</v>
+      </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
@@ -15724,6 +15745,9 @@
       <c r="B94" t="s">
         <v>241</v>
       </c>
+      <c r="C94" t="s">
+        <v>3194</v>
+      </c>
       <c r="E94" t="s">
         <v>1517</v>
       </c>
@@ -15959,7 +15983,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="B100" t="s">
         <v>1807</v>
@@ -16000,7 +16024,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="B101" t="s">
         <v>256</v>
@@ -16280,6 +16304,9 @@
       <c r="E108" t="s">
         <v>215</v>
       </c>
+      <c r="F108" t="s">
+        <v>3195</v>
+      </c>
       <c r="G108" t="s">
         <v>1517</v>
       </c>
@@ -16357,7 +16384,7 @@
         <v>279</v>
       </c>
       <c r="E110" t="s">
-        <v>2373</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
@@ -16558,13 +16585,13 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
-        <v>2366</v>
+        <v>2363</v>
       </c>
       <c r="B116" t="s">
         <v>287</v>
       </c>
       <c r="C116" t="s">
-        <v>2365</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
@@ -16844,7 +16871,7 @@
         <v>301</v>
       </c>
       <c r="D127" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
       <c r="E127" t="s">
         <v>1517</v>
@@ -16876,7 +16903,7 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="B128" t="s">
         <v>303</v>
@@ -17135,7 +17162,7 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="B136" t="s">
         <v>366</v>
@@ -19052,7 +19079,7 @@
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="B187" t="s">
         <v>478</v>
@@ -19772,7 +19799,7 @@
         <v>1651</v>
       </c>
       <c r="E205" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
       <c r="F205" t="s">
         <v>1652</v>
@@ -21754,7 +21781,7 @@
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="B257" t="s">
         <v>1694</v>
@@ -22248,7 +22275,7 @@
         <v>615</v>
       </c>
       <c r="C270" t="s">
-        <v>2383</v>
+        <v>2380</v>
       </c>
       <c r="D270" t="s">
         <v>2082</v>
@@ -22362,7 +22389,7 @@
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="B273" t="s">
         <v>621</v>
@@ -23614,13 +23641,13 @@
         <v>683</v>
       </c>
       <c r="C311" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
       <c r="D311" t="s">
-        <v>2385</v>
+        <v>2382</v>
       </c>
       <c r="E311" t="s">
-        <v>2386</v>
+        <v>2383</v>
       </c>
       <c r="G311" t="s">
         <v>1517</v>
@@ -23696,7 +23723,7 @@
         <v>1706</v>
       </c>
       <c r="D313" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
       <c r="E313" t="s">
         <v>1517</v>
@@ -24299,7 +24326,7 @@
         <v>2038</v>
       </c>
       <c r="F328" t="s">
-        <v>2381</v>
+        <v>2378</v>
       </c>
       <c r="H328" t="s">
         <v>1517</v>
@@ -25438,7 +25465,7 @@
         <v>2085</v>
       </c>
       <c r="C359" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="D359" t="s">
         <v>1517</v>
@@ -25590,7 +25617,7 @@
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A363" s="6" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="B363" t="s">
         <v>1830</v>
@@ -25616,7 +25643,7 @@
         <v>2107</v>
       </c>
       <c r="D364" t="s">
-        <v>2371</v>
+        <v>2368</v>
       </c>
       <c r="E364" t="s">
         <v>1517</v>
@@ -25665,7 +25692,7 @@
         <v>783</v>
       </c>
       <c r="C366" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="F366" t="s">
         <v>1517</v>
@@ -25893,22 +25920,22 @@
         <v>792</v>
       </c>
       <c r="D372" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="E372" t="s">
         <v>1235</v>
       </c>
       <c r="F372" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="G372" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="H372" t="s">
         <v>1236</v>
       </c>
       <c r="I372" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="J372" t="s">
         <v>1244</v>
@@ -25972,7 +25999,7 @@
         <v>797</v>
       </c>
       <c r="C374" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="F374" t="s">
         <v>1517</v>
@@ -26086,7 +26113,7 @@
         <v>857</v>
       </c>
       <c r="B377" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="C377" t="s">
         <v>856</v>
@@ -26519,10 +26546,10 @@
         <v>1361</v>
       </c>
       <c r="D388" t="s">
+        <v>2215</v>
+      </c>
+      <c r="E388" t="s">
         <v>2216</v>
-      </c>
-      <c r="E388" t="s">
-        <v>2217</v>
       </c>
     </row>
     <row r="389" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -26539,7 +26566,7 @@
         <v>795</v>
       </c>
       <c r="E389" t="s">
-        <v>2382</v>
+        <v>2379</v>
       </c>
       <c r="F389" t="s">
         <v>1810</v>
@@ -26691,7 +26718,7 @@
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A393" s="6" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="B393" t="s">
         <v>440</v>
@@ -26782,7 +26809,7 @@
         <v>897</v>
       </c>
       <c r="D395" t="s">
-        <v>2385</v>
+        <v>2382</v>
       </c>
       <c r="F395" t="s">
         <v>1517</v>
@@ -26855,7 +26882,7 @@
         <v>166</v>
       </c>
       <c r="B397" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="C397" t="s">
         <v>1517</v>
@@ -26899,7 +26926,7 @@
         <v>900</v>
       </c>
       <c r="C398" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="F398" t="s">
         <v>1517</v>
@@ -26993,7 +27020,7 @@
         <v>807</v>
       </c>
       <c r="I400" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="J400" t="s">
         <v>858</v>
@@ -27010,7 +27037,7 @@
         <v>904</v>
       </c>
       <c r="C401" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="E401" t="s">
         <v>1517</v>
@@ -27051,7 +27078,7 @@
         <v>1363</v>
       </c>
       <c r="D402" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="E402" t="s">
         <v>1517</v>
@@ -27124,13 +27151,13 @@
         <v>814</v>
       </c>
       <c r="B404" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C404" t="s">
         <v>2223</v>
       </c>
-      <c r="C404" t="s">
+      <c r="D404" t="s">
         <v>2224</v>
-      </c>
-      <c r="D404" t="s">
-        <v>2225</v>
       </c>
       <c r="E404" t="s">
         <v>1517</v>
@@ -27165,7 +27192,7 @@
         <v>141</v>
       </c>
       <c r="B405" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="E405" t="s">
         <v>1517</v>
@@ -27197,19 +27224,19 @@
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A406" s="6" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="B406" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="C406" t="s">
         <v>1318</v>
       </c>
       <c r="D406" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="E406" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="F406" t="s">
         <v>1517</v>
@@ -27250,7 +27277,7 @@
         <v>1811</v>
       </c>
       <c r="E407" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="G407" t="s">
         <v>1517</v>
@@ -27297,13 +27324,13 @@
         <v>810</v>
       </c>
       <c r="B409" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C409" t="s">
+        <v>2233</v>
+      </c>
+      <c r="D409" t="s">
         <v>2232</v>
-      </c>
-      <c r="C409" t="s">
-        <v>2234</v>
-      </c>
-      <c r="D409" t="s">
-        <v>2233</v>
       </c>
       <c r="E409" t="s">
         <v>809</v>
@@ -27350,7 +27377,7 @@
         <v>248</v>
       </c>
       <c r="G410" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="H410" t="s">
         <v>1517</v>
@@ -27376,13 +27403,13 @@
         <v>812</v>
       </c>
       <c r="B411" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="C411" t="s">
         <v>811</v>
       </c>
       <c r="D411" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="E411" t="s">
         <v>1517</v>
@@ -27452,13 +27479,13 @@
         <v>815</v>
       </c>
       <c r="B413" t="s">
+        <v>2237</v>
+      </c>
+      <c r="C413" t="s">
+        <v>2239</v>
+      </c>
+      <c r="D413" t="s">
         <v>2238</v>
-      </c>
-      <c r="C413" t="s">
-        <v>2240</v>
-      </c>
-      <c r="D413" t="s">
-        <v>2239</v>
       </c>
       <c r="E413" t="s">
         <v>1517</v>
@@ -27660,10 +27687,10 @@
         <v>920</v>
       </c>
       <c r="C418" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="D418" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="E418" t="s">
         <v>1517</v>
@@ -27777,19 +27804,19 @@
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A421" s="6" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="B421" t="s">
         <v>925</v>
       </c>
       <c r="C421" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="D421" t="s">
         <v>862</v>
       </c>
       <c r="E421" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="F421" t="s">
         <v>1517</v>
@@ -27975,7 +28002,7 @@
         <v>932</v>
       </c>
       <c r="C427" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="E427" t="s">
         <v>1517</v>
@@ -28124,7 +28151,7 @@
         <v>346</v>
       </c>
       <c r="E431" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="G431" t="s">
         <v>1517</v>
@@ -28153,16 +28180,16 @@
         <v>819</v>
       </c>
       <c r="B432" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C432" t="s">
         <v>2248</v>
-      </c>
-      <c r="C432" t="s">
-        <v>2249</v>
       </c>
       <c r="D432" t="s">
         <v>1872</v>
       </c>
       <c r="E432" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="F432" t="s">
         <v>1517</v>
@@ -28206,7 +28233,7 @@
         <v>1873</v>
       </c>
       <c r="F433" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.2">
@@ -28255,16 +28282,16 @@
         <v>941</v>
       </c>
       <c r="C435" t="s">
+        <v>2252</v>
+      </c>
+      <c r="D435" t="s">
         <v>2253</v>
       </c>
-      <c r="D435" t="s">
-        <v>2254</v>
-      </c>
       <c r="E435" t="s">
         <v>1517</v>
       </c>
       <c r="F435" t="s">
-        <v>1517</v>
+        <v>3198</v>
       </c>
       <c r="G435" t="s">
         <v>1517</v>
@@ -28322,7 +28349,7 @@
         <v>843</v>
       </c>
       <c r="B437" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C437" t="s">
         <v>1874</v>
@@ -28652,7 +28679,7 @@
         <v>1412</v>
       </c>
       <c r="B446" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="C446" t="s">
         <v>1423</v>
@@ -29000,10 +29027,10 @@
         <v>964</v>
       </c>
       <c r="C455" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="D455" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="E455" t="s">
         <v>1517</v>
@@ -29038,7 +29065,7 @@
         <v>126</v>
       </c>
       <c r="B456" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="C456" t="s">
         <v>1877</v>
@@ -29114,7 +29141,7 @@
         <v>850</v>
       </c>
       <c r="B458" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="C458" t="s">
         <v>1878</v>
@@ -29190,10 +29217,10 @@
         <v>968</v>
       </c>
       <c r="B460" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="C460" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="D460" t="s">
         <v>1517</v>
@@ -29234,10 +29261,10 @@
         <v>1036</v>
       </c>
       <c r="C461" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="D461" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="E461" t="s">
         <v>1517</v>
@@ -29310,10 +29337,10 @@
         <v>503</v>
       </c>
       <c r="B463" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="C463" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="D463" t="s">
         <v>1502</v>
@@ -29354,10 +29381,10 @@
         <v>969</v>
       </c>
       <c r="C464" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="D464" t="s">
-        <v>2265</v>
+        <v>3200</v>
       </c>
       <c r="E464" t="s">
         <v>1517</v>
@@ -29392,10 +29419,10 @@
         <v>821</v>
       </c>
       <c r="B465" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="C465" t="s">
-        <v>2268</v>
+        <v>3199</v>
       </c>
       <c r="D465" t="s">
         <v>1879</v>
@@ -29506,7 +29533,7 @@
         <v>1238</v>
       </c>
       <c r="B468" t="s">
-        <v>2269</v>
+        <v>2266</v>
       </c>
       <c r="C468" t="s">
         <v>1237</v>
@@ -29547,13 +29574,13 @@
         <v>657</v>
       </c>
       <c r="B469" t="s">
-        <v>2270</v>
+        <v>2267</v>
       </c>
       <c r="C469" t="s">
-        <v>2271</v>
+        <v>2268</v>
       </c>
       <c r="D469" t="s">
-        <v>2272</v>
+        <v>2269</v>
       </c>
       <c r="I469" t="s">
         <v>1517</v>
@@ -29579,7 +29606,7 @@
         <v>974</v>
       </c>
       <c r="C470" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="D470" t="s">
         <v>1517</v>
@@ -29614,7 +29641,7 @@
     </row>
     <row r="471" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A471" s="6" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="B471" t="s">
         <v>1882</v>
@@ -29658,7 +29685,7 @@
         <v>824</v>
       </c>
       <c r="B472" t="s">
-        <v>2273</v>
+        <v>2270</v>
       </c>
       <c r="C472" t="s">
         <v>1883</v>
@@ -29699,10 +29726,10 @@
         <v>854</v>
       </c>
       <c r="B473" t="s">
-        <v>2274</v>
+        <v>2271</v>
       </c>
       <c r="C473" t="s">
-        <v>2275</v>
+        <v>2272</v>
       </c>
       <c r="D473" t="s">
         <v>1517</v>
@@ -29898,7 +29925,7 @@
         <v>985</v>
       </c>
       <c r="C478" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="E478" t="s">
         <v>1517</v>
@@ -29944,7 +29971,7 @@
         <v>987</v>
       </c>
       <c r="B480" t="s">
-        <v>2276</v>
+        <v>2273</v>
       </c>
       <c r="C480" t="s">
         <v>1517</v>
@@ -29988,10 +30015,10 @@
         <v>988</v>
       </c>
       <c r="C481" t="s">
-        <v>2277</v>
+        <v>2274</v>
       </c>
       <c r="D481" t="s">
-        <v>2278</v>
+        <v>2275</v>
       </c>
       <c r="G481" t="s">
         <v>1517</v>
@@ -30026,7 +30053,7 @@
         <v>1327</v>
       </c>
       <c r="D482" t="s">
-        <v>2279</v>
+        <v>2276</v>
       </c>
       <c r="E482" t="s">
         <v>1517</v>
@@ -30187,13 +30214,13 @@
         <v>2098</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>2280</v>
+        <v>2277</v>
       </c>
       <c r="D486" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
       <c r="E486" t="s">
-        <v>2379</v>
+        <v>2376</v>
       </c>
       <c r="F486" t="s">
         <v>989</v>
@@ -30225,7 +30252,7 @@
         <v>2099</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="D487" t="s">
         <v>1891</v>
@@ -30260,7 +30287,7 @@
         <v>2100</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>2282</v>
+        <v>2279</v>
       </c>
       <c r="D488" t="s">
         <v>1893</v>
@@ -30307,7 +30334,7 @@
         <v>1895</v>
       </c>
       <c r="E489" t="s">
-        <v>2283</v>
+        <v>2280</v>
       </c>
       <c r="F489" t="s">
         <v>1517</v>
@@ -30339,7 +30366,7 @@
         <v>831</v>
       </c>
       <c r="B490" s="11" t="s">
-        <v>2284</v>
+        <v>2281</v>
       </c>
       <c r="C490" t="s">
         <v>1896</v>
@@ -30389,7 +30416,7 @@
         <v>1898</v>
       </c>
       <c r="E491" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
       <c r="F491" t="s">
         <v>1899</v>
@@ -30421,7 +30448,7 @@
         <v>998</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>2285</v>
+        <v>2282</v>
       </c>
       <c r="D492" t="s">
         <v>1144</v>
@@ -30459,7 +30486,7 @@
         <v>832</v>
       </c>
       <c r="B493" t="s">
-        <v>2286</v>
+        <v>2283</v>
       </c>
       <c r="C493" t="s">
         <v>1900</v>
@@ -30500,7 +30527,7 @@
         <v>136</v>
       </c>
       <c r="B494" t="s">
-        <v>2287</v>
+        <v>2284</v>
       </c>
       <c r="D494" t="s">
         <v>1517</v>
@@ -30582,10 +30609,10 @@
         <v>1002</v>
       </c>
       <c r="C496" t="s">
-        <v>2288</v>
+        <v>2285</v>
       </c>
       <c r="D496" t="s">
-        <v>2289</v>
+        <v>2286</v>
       </c>
       <c r="G496" t="s">
         <v>1517</v>
@@ -30655,7 +30682,7 @@
         <v>383</v>
       </c>
       <c r="B498" t="s">
-        <v>2290</v>
+        <v>2287</v>
       </c>
       <c r="C498" t="s">
         <v>1517</v>
@@ -30696,13 +30723,13 @@
         <v>836</v>
       </c>
       <c r="B499" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
       <c r="C499" t="s">
-        <v>2292</v>
+        <v>2289</v>
       </c>
       <c r="D499" t="s">
-        <v>2293</v>
+        <v>2290</v>
       </c>
       <c r="E499" t="s">
         <v>1517</v>
@@ -30813,7 +30840,7 @@
         <v>1295</v>
       </c>
       <c r="B502" t="s">
-        <v>2294</v>
+        <v>2291</v>
       </c>
       <c r="C502" t="s">
         <v>1294</v>
@@ -30854,7 +30881,7 @@
         <v>1224</v>
       </c>
       <c r="B503" t="s">
-        <v>2295</v>
+        <v>2292</v>
       </c>
       <c r="C503" t="s">
         <v>1223</v>
@@ -30901,10 +30928,10 @@
         <v>563</v>
       </c>
       <c r="D504" t="s">
-        <v>2296</v>
+        <v>2293</v>
       </c>
       <c r="E504" t="s">
-        <v>2297</v>
+        <v>2294</v>
       </c>
       <c r="F504" t="s">
         <v>564</v>
@@ -30924,7 +30951,7 @@
         <v>2102</v>
       </c>
       <c r="E505" t="s">
-        <v>2298</v>
+        <v>2295</v>
       </c>
       <c r="I505" t="s">
         <v>1517</v>
@@ -30988,13 +31015,13 @@
         <v>838</v>
       </c>
       <c r="B507" t="s">
-        <v>2299</v>
+        <v>2296</v>
       </c>
       <c r="C507" t="s">
-        <v>2300</v>
+        <v>2297</v>
       </c>
       <c r="D507" t="s">
-        <v>2301</v>
+        <v>2298</v>
       </c>
       <c r="E507" t="s">
         <v>1517</v>
@@ -31029,7 +31056,7 @@
         <v>324</v>
       </c>
       <c r="B508" t="s">
-        <v>2302</v>
+        <v>2299</v>
       </c>
       <c r="C508" t="s">
         <v>1107</v>
@@ -31070,7 +31097,7 @@
         <v>870</v>
       </c>
       <c r="B509" t="s">
-        <v>2303</v>
+        <v>2300</v>
       </c>
       <c r="C509" t="s">
         <v>1904</v>
@@ -31114,10 +31141,10 @@
         <v>1012</v>
       </c>
       <c r="C510" t="s">
-        <v>2304</v>
+        <v>2301</v>
       </c>
       <c r="D510" t="s">
-        <v>2305</v>
+        <v>2302</v>
       </c>
       <c r="E510" t="s">
         <v>1517</v>
@@ -31152,7 +31179,7 @@
         <v>1014</v>
       </c>
       <c r="B511" t="s">
-        <v>2306</v>
+        <v>2303</v>
       </c>
       <c r="D511" t="s">
         <v>1517</v>
@@ -31190,13 +31217,13 @@
         <v>140</v>
       </c>
       <c r="B512" t="s">
-        <v>2307</v>
+        <v>2304</v>
       </c>
       <c r="C512" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="D512" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="E512" t="s">
         <v>1517</v>
@@ -31316,13 +31343,13 @@
         <v>1018</v>
       </c>
       <c r="C515" t="s">
-        <v>2308</v>
+        <v>2305</v>
       </c>
       <c r="D515" t="s">
-        <v>2309</v>
+        <v>2306</v>
       </c>
       <c r="E515" t="s">
-        <v>2310</v>
+        <v>2307</v>
       </c>
       <c r="F515" t="s">
         <v>864</v>
@@ -31331,16 +31358,16 @@
         <v>872</v>
       </c>
       <c r="H515" t="s">
+        <v>2308</v>
+      </c>
+      <c r="I515" t="s">
+        <v>2309</v>
+      </c>
+      <c r="J515" t="s">
+        <v>2310</v>
+      </c>
+      <c r="K515" t="s">
         <v>2311</v>
-      </c>
-      <c r="I515" t="s">
-        <v>2312</v>
-      </c>
-      <c r="J515" t="s">
-        <v>2313</v>
-      </c>
-      <c r="K515" t="s">
-        <v>2314</v>
       </c>
       <c r="L515" t="s">
         <v>1517</v>
@@ -31357,10 +31384,10 @@
         <v>1019</v>
       </c>
       <c r="C516" t="s">
-        <v>2316</v>
+        <v>2313</v>
       </c>
       <c r="D516" t="s">
-        <v>2315</v>
+        <v>2312</v>
       </c>
       <c r="E516" t="s">
         <v>1517</v>
@@ -31395,7 +31422,7 @@
         <v>834</v>
       </c>
       <c r="B517" t="s">
-        <v>2317</v>
+        <v>2314</v>
       </c>
       <c r="C517" t="s">
         <v>1908</v>
@@ -31436,10 +31463,10 @@
         <v>129</v>
       </c>
       <c r="B518" t="s">
-        <v>2318</v>
+        <v>2315</v>
       </c>
       <c r="C518" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="D518" t="s">
         <v>1909</v>
@@ -31447,16 +31474,16 @@
     </row>
     <row r="519" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A519" s="6" t="s">
-        <v>2358</v>
+        <v>2355</v>
       </c>
       <c r="B519" t="s">
-        <v>2359</v>
+        <v>2356</v>
       </c>
       <c r="C519" t="s">
-        <v>2319</v>
+        <v>2316</v>
       </c>
       <c r="D519" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
       <c r="G519" t="s">
         <v>1517</v>
@@ -31488,10 +31515,10 @@
         <v>1021</v>
       </c>
       <c r="C520" t="s">
-        <v>2321</v>
+        <v>2318</v>
       </c>
       <c r="D520" t="s">
-        <v>2322</v>
+        <v>2319</v>
       </c>
       <c r="E520" t="s">
         <v>1517</v>
@@ -31526,7 +31553,7 @@
         <v>839</v>
       </c>
       <c r="B521" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
       <c r="C521" t="s">
         <v>1910</v>
@@ -31567,10 +31594,10 @@
         <v>1426</v>
       </c>
       <c r="B522" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="C522" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="D522" t="s">
         <v>1517</v>
@@ -31611,13 +31638,13 @@
         <v>1023</v>
       </c>
       <c r="C523" t="s">
-        <v>2325</v>
+        <v>2322</v>
       </c>
       <c r="D523" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
       <c r="E523" t="s">
-        <v>2326</v>
+        <v>2323</v>
       </c>
       <c r="F523" t="s">
         <v>1517</v>
@@ -31819,7 +31846,7 @@
         <v>1826</v>
       </c>
       <c r="D528" t="s">
-        <v>2328</v>
+        <v>2325</v>
       </c>
       <c r="E528" t="s">
         <v>1517</v>
@@ -32120,10 +32147,10 @@
         <v>409</v>
       </c>
       <c r="B536" t="s">
-        <v>2376</v>
+        <v>2373</v>
       </c>
       <c r="C536" t="s">
-        <v>2375</v>
+        <v>2372</v>
       </c>
       <c r="D536" t="s">
         <v>413</v>
@@ -32219,13 +32246,13 @@
         <v>1058</v>
       </c>
       <c r="B539" t="s">
-        <v>2329</v>
+        <v>2326</v>
       </c>
       <c r="C539" t="s">
-        <v>2330</v>
+        <v>2327</v>
       </c>
       <c r="D539" t="s">
-        <v>2331</v>
+        <v>2328</v>
       </c>
       <c r="E539" t="s">
         <v>1517</v>
@@ -32257,7 +32284,7 @@
     </row>
     <row r="540" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A540" s="6" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="B540" t="s">
         <v>1912</v>
@@ -32307,7 +32334,7 @@
         <v>1814</v>
       </c>
       <c r="D541" t="s">
-        <v>2332</v>
+        <v>2329</v>
       </c>
       <c r="E541" t="s">
         <v>1517</v>
@@ -32377,13 +32404,13 @@
     </row>
     <row r="543" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A543" s="6" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="B543" t="s">
         <v>1063</v>
       </c>
       <c r="C543" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="D543" t="s">
         <v>1517</v>
@@ -32421,16 +32448,16 @@
         <v>849</v>
       </c>
       <c r="B544" t="s">
+        <v>2330</v>
+      </c>
+      <c r="C544" t="s">
+        <v>2331</v>
+      </c>
+      <c r="D544" t="s">
+        <v>2332</v>
+      </c>
+      <c r="E544" t="s">
         <v>2333</v>
-      </c>
-      <c r="C544" t="s">
-        <v>2334</v>
-      </c>
-      <c r="D544" t="s">
-        <v>2335</v>
-      </c>
-      <c r="E544" t="s">
-        <v>2336</v>
       </c>
       <c r="F544" t="s">
         <v>1517</v>
@@ -32465,13 +32492,13 @@
         <v>1064</v>
       </c>
       <c r="C545" t="s">
-        <v>2337</v>
+        <v>2334</v>
       </c>
       <c r="D545" t="s">
         <v>1038</v>
       </c>
       <c r="E545" t="s">
-        <v>2338</v>
+        <v>2335</v>
       </c>
       <c r="F545" t="s">
         <v>1517</v>
@@ -32582,7 +32609,7 @@
     </row>
     <row r="548" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A548" s="6" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="B548" t="s">
         <v>1162</v>
@@ -32831,7 +32858,7 @@
         <v>1082</v>
       </c>
       <c r="B554" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="C554" t="s">
         <v>1081</v>
@@ -32945,13 +32972,13 @@
     </row>
     <row r="557" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A557" s="6" t="s">
-        <v>2341</v>
+        <v>2338</v>
       </c>
       <c r="B557" t="s">
-        <v>2340</v>
+        <v>2337</v>
       </c>
       <c r="C557" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
       <c r="D557" t="s">
         <v>1517</v>
@@ -32989,7 +33016,7 @@
         <v>1071</v>
       </c>
       <c r="B558" t="s">
-        <v>2343</v>
+        <v>2340</v>
       </c>
       <c r="C558" t="s">
         <v>1070</v>
@@ -33434,7 +33461,7 @@
         <v>1753</v>
       </c>
       <c r="C569" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="D569" t="s">
         <v>1445</v>
@@ -33507,7 +33534,7 @@
         <v>1444</v>
       </c>
       <c r="E571" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="L571" t="s">
         <v>1517</v>
@@ -33518,13 +33545,13 @@
     </row>
     <row r="572" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A572" s="6" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
       <c r="B572" t="s">
         <v>1102</v>
       </c>
       <c r="C572" t="s">
-        <v>2370</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="573" spans="1:13" x14ac:dyDescent="0.2">
@@ -33646,7 +33673,7 @@
     </row>
     <row r="576" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A576" s="6" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="B576" t="s">
         <v>193</v>
@@ -34164,7 +34191,7 @@
     </row>
     <row r="589" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A589" s="6" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="B589" t="s">
         <v>1745</v>
@@ -34404,7 +34431,7 @@
     </row>
     <row r="595" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A595" s="6" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="B595" t="s">
         <v>1035</v>
@@ -34717,7 +34744,7 @@
     </row>
     <row r="603" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A603" s="6" t="s">
-        <v>2368</v>
+        <v>2365</v>
       </c>
       <c r="B603" t="s">
         <v>1146</v>
@@ -34801,7 +34828,7 @@
         <v>1418</v>
       </c>
       <c r="B606" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="C606" t="s">
         <v>1452</v>
@@ -34880,7 +34907,7 @@
         <v>1453</v>
       </c>
       <c r="B608" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="C608" t="s">
         <v>1517</v>
@@ -34936,7 +34963,7 @@
         <v>2136</v>
       </c>
       <c r="G609" t="s">
-        <v>2137</v>
+        <v>3193</v>
       </c>
       <c r="L609" t="s">
         <v>1517</v>
@@ -35476,7 +35503,7 @@
         <v>1379</v>
       </c>
       <c r="E624" t="s">
-        <v>2387</v>
+        <v>2384</v>
       </c>
       <c r="F624" t="s">
         <v>1517</v>
@@ -36083,10 +36110,10 @@
         <v>1216</v>
       </c>
       <c r="C641" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
       <c r="D641" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="E641" t="s">
         <v>1517</v>
@@ -36326,7 +36353,7 @@
         <v>197</v>
       </c>
       <c r="B647" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="C647" t="s">
         <v>1496</v>
@@ -36653,7 +36680,7 @@
         <v>1250</v>
       </c>
       <c r="B656" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="D656" s="11"/>
       <c r="F656" t="s">
@@ -36689,10 +36716,10 @@
         <v>1252</v>
       </c>
       <c r="C657" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
       <c r="D657" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
       <c r="E657" t="s">
         <v>1517</v>
@@ -36733,7 +36760,7 @@
         <v>1348</v>
       </c>
       <c r="D658" t="s">
-        <v>2348</v>
+        <v>2345</v>
       </c>
       <c r="E658" t="s">
         <v>1517</v>
@@ -37106,7 +37133,7 @@
         <v>1266</v>
       </c>
       <c r="C669" t="s">
-        <v>2357</v>
+        <v>2354</v>
       </c>
       <c r="D669" t="s">
         <v>1517</v>
@@ -37217,13 +37244,13 @@
         <v>871</v>
       </c>
       <c r="B672" t="s">
-        <v>2356</v>
+        <v>2353</v>
       </c>
       <c r="C672" t="s">
-        <v>2355</v>
+        <v>2352</v>
       </c>
       <c r="D672" t="s">
-        <v>2354</v>
+        <v>2351</v>
       </c>
       <c r="E672" t="s">
         <v>1517</v>
@@ -37348,10 +37375,10 @@
         <v>1270</v>
       </c>
       <c r="C676" t="s">
-        <v>2353</v>
+        <v>2350</v>
       </c>
       <c r="D676" t="s">
-        <v>2352</v>
+        <v>2349</v>
       </c>
       <c r="E676" t="s">
         <v>1517</v>
@@ -37830,7 +37857,7 @@
         <v>1420</v>
       </c>
       <c r="B689" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="C689" t="s">
         <v>1456</v>
@@ -37894,7 +37921,7 @@
         <v>1396</v>
       </c>
       <c r="E691" t="s">
-        <v>2374</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="692" spans="1:13" x14ac:dyDescent="0.2">
@@ -37902,7 +37929,7 @@
         <v>1400</v>
       </c>
       <c r="B692" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="C692" t="s">
         <v>1399</v>
@@ -37984,7 +38011,7 @@
         <v>1404</v>
       </c>
       <c r="B694" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="C694" t="s">
         <v>1403</v>
@@ -38028,10 +38055,10 @@
         <v>1309</v>
       </c>
       <c r="C695" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D695" t="s">
         <v>2146</v>
-      </c>
-      <c r="D695" t="s">
-        <v>2147</v>
       </c>
       <c r="I695" t="s">
         <v>1517</v>
@@ -38060,7 +38087,7 @@
         <v>1371</v>
       </c>
       <c r="D696" t="s">
-        <v>2349</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="697" spans="1:13" x14ac:dyDescent="0.2">
@@ -38068,7 +38095,7 @@
         <v>1402</v>
       </c>
       <c r="B697" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="C697" t="s">
         <v>1401</v>
@@ -38109,7 +38136,7 @@
         <v>1414</v>
       </c>
       <c r="B698" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="C698" t="s">
         <v>1413</v>
@@ -38191,10 +38218,10 @@
         <v>172</v>
       </c>
       <c r="B700" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C700" t="s">
         <v>2150</v>
-      </c>
-      <c r="C700" t="s">
-        <v>2151</v>
       </c>
       <c r="G700" t="s">
         <v>1517</v>
@@ -38229,7 +38256,7 @@
         <v>532</v>
       </c>
       <c r="D701" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="E701" t="s">
         <v>1421</v>
@@ -38246,10 +38273,10 @@
         <v>1411</v>
       </c>
       <c r="B702" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="C702" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="E702" t="s">
         <v>1517</v>
@@ -38328,10 +38355,10 @@
         <v>1314</v>
       </c>
       <c r="C704" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D704" t="s">
         <v>2154</v>
-      </c>
-      <c r="D704" t="s">
-        <v>2155</v>
       </c>
       <c r="G704" t="s">
         <v>1517</v>
@@ -38360,13 +38387,13 @@
         <v>779</v>
       </c>
       <c r="B705" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="C705" t="s">
         <v>778</v>
       </c>
       <c r="D705" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="F705" t="s">
         <v>1517</v>
@@ -38483,10 +38510,10 @@
         <v>1383</v>
       </c>
       <c r="C708" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D708" t="s">
         <v>2158</v>
-      </c>
-      <c r="D708" t="s">
-        <v>2159</v>
       </c>
       <c r="F708" t="s">
         <v>1517</v>
@@ -38515,16 +38542,16 @@
     </row>
     <row r="709" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A709" s="6" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B709" t="s">
         <v>2160</v>
-      </c>
-      <c r="B709" t="s">
-        <v>2161</v>
       </c>
       <c r="C709" t="s">
         <v>1384</v>
       </c>
       <c r="D709" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="E709" t="s">
         <v>1517</v>
@@ -38562,7 +38589,7 @@
         <v>1385</v>
       </c>
       <c r="C710" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="D710" t="s">
         <v>1517</v>
@@ -38597,13 +38624,13 @@
     </row>
     <row r="711" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A711" s="6" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B711" t="s">
         <v>2165</v>
       </c>
-      <c r="B711" t="s">
-        <v>2166</v>
-      </c>
       <c r="C711" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="D711" t="s">
         <v>1441</v>
@@ -38638,10 +38665,10 @@
         <v>1429</v>
       </c>
       <c r="B712" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="C712" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="D712" t="s">
         <v>1517</v>
@@ -38682,7 +38709,7 @@
         <v>1458</v>
       </c>
       <c r="C713" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="D713" t="s">
         <v>1517</v>
@@ -38720,10 +38747,10 @@
         <v>1447</v>
       </c>
       <c r="B714" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="C714" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="D714" t="s">
         <v>1517</v>
@@ -38761,10 +38788,10 @@
         <v>1451</v>
       </c>
       <c r="B715" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="C715" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="D715" t="s">
         <v>1517</v>
@@ -38802,10 +38829,10 @@
         <v>1417</v>
       </c>
       <c r="B716" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="C716" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="D716" t="s">
         <v>1517</v>
@@ -38843,13 +38870,13 @@
         <v>1251</v>
       </c>
       <c r="B717" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="C717" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="D717" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="I717" t="s">
         <v>1517</v>
@@ -38872,16 +38899,16 @@
         <v>392</v>
       </c>
       <c r="B718" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C718" t="s">
         <v>2177</v>
       </c>
-      <c r="C718" t="s">
+      <c r="D718" t="s">
         <v>2178</v>
       </c>
-      <c r="D718" t="s">
+      <c r="E718" t="s">
         <v>2179</v>
-      </c>
-      <c r="E718" t="s">
-        <v>2180</v>
       </c>
       <c r="K718" t="s">
         <v>1517</v>
@@ -38898,13 +38925,13 @@
         <v>1435</v>
       </c>
       <c r="B719" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="C719" t="s">
         <v>1434</v>
       </c>
       <c r="D719" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="E719" t="s">
         <v>1517</v>
@@ -38939,10 +38966,10 @@
         <v>1439</v>
       </c>
       <c r="B720" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="C720" t="s">
-        <v>2360</v>
+        <v>2357</v>
       </c>
       <c r="D720" t="s">
         <v>1438</v>
@@ -38983,10 +39010,10 @@
         <v>1463</v>
       </c>
       <c r="C721" t="s">
-        <v>2351</v>
+        <v>2348</v>
       </c>
       <c r="D721" t="s">
-        <v>2350</v>
+        <v>2347</v>
       </c>
       <c r="E721" t="s">
         <v>1517</v>
@@ -39024,13 +39051,13 @@
         <v>1467</v>
       </c>
       <c r="C722" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D722" t="s">
         <v>2184</v>
       </c>
-      <c r="D722" t="s">
+      <c r="E722" t="s">
         <v>2185</v>
-      </c>
-      <c r="E722" t="s">
-        <v>2186</v>
       </c>
       <c r="K722" t="s">
         <v>1517</v>
@@ -39050,7 +39077,7 @@
         <v>1468</v>
       </c>
       <c r="C723" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="D723" t="s">
         <v>1517</v>
@@ -39088,10 +39115,10 @@
         <v>1419</v>
       </c>
       <c r="B724" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="C724" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="D724" t="s">
         <v>1517</v>
@@ -39129,19 +39156,19 @@
         <v>1101</v>
       </c>
       <c r="B725" s="7" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C725" t="s">
+        <v>2189</v>
+      </c>
+      <c r="D725" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E725" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F725" t="s">
         <v>2193</v>
-      </c>
-      <c r="C725" t="s">
-        <v>2190</v>
-      </c>
-      <c r="D725" t="s">
-        <v>2191</v>
-      </c>
-      <c r="E725" t="s">
-        <v>2192</v>
-      </c>
-      <c r="F725" t="s">
-        <v>2194</v>
       </c>
       <c r="H725" t="s">
         <v>1517</v>
@@ -39170,7 +39197,7 @@
         <v>1469</v>
       </c>
       <c r="C726" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="D726" t="s">
         <v>1517</v>
@@ -39211,10 +39238,10 @@
         <v>1471</v>
       </c>
       <c r="C727" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D727" t="s">
         <v>2196</v>
-      </c>
-      <c r="D727" t="s">
-        <v>2197</v>
       </c>
       <c r="E727" t="s">
         <v>1517</v>
@@ -39571,17 +39598,16 @@
     </row>
     <row r="736" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A736" s="6" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
       <c r="B736" t="s">
         <v>1315</v>
       </c>
       <c r="C736" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M736" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M735">
     <sortCondition ref="A2:A735"/>
   </sortState>
@@ -39630,79 +39656,79 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2482</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2483</v>
+        <v>2480</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2484</v>
+        <v>2481</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2485</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>2486</v>
+        <v>2483</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2487</v>
+        <v>2484</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2488</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>2489</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2490</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2491</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2492</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>2493</v>
+        <v>2490</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2494</v>
+        <v>2491</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2495</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>2496</v>
+        <v>2493</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2497</v>
+        <v>2494</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2498</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>2499</v>
+        <v>2496</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
     </row>
   </sheetData>
@@ -39742,173 +39768,173 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2498</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2499</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2500</v>
+      </c>
+      <c r="D2" t="s">
         <v>2501</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2502</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2503</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2504</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2505</v>
+        <v>2502</v>
       </c>
       <c r="B3" t="s">
-        <v>2506</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2507</v>
+        <v>2504</v>
       </c>
       <c r="B4" t="s">
-        <v>2508</v>
+        <v>2505</v>
       </c>
       <c r="C4" t="s">
-        <v>2509</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2508</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2509</v>
+      </c>
+      <c r="D5" t="s">
         <v>2510</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2511</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2512</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2513</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2512</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2513</v>
+      </c>
+      <c r="D6" t="s">
         <v>2514</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2515</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2516</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2517</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2518</v>
+        <v>2515</v>
       </c>
       <c r="B7" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="B8" t="s">
-        <v>2521</v>
+        <v>2518</v>
       </c>
       <c r="C8" t="s">
-        <v>2522</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>2520</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2522</v>
+      </c>
+      <c r="D9" t="s">
         <v>2523</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2524</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2525</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2526</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2527</v>
+        <v>2524</v>
       </c>
       <c r="B10" t="s">
-        <v>2528</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2529</v>
+        <v>2526</v>
       </c>
       <c r="B11" t="s">
-        <v>2530</v>
+        <v>2527</v>
       </c>
       <c r="C11" t="s">
-        <v>2531</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>2532</v>
+        <v>2529</v>
       </c>
       <c r="B12" t="s">
-        <v>2533</v>
+        <v>2530</v>
       </c>
       <c r="C12" t="s">
-        <v>2534</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>2532</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2534</v>
+      </c>
+      <c r="D13" t="s">
         <v>2535</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2536</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2537</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2538</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>2539</v>
+        <v>2536</v>
       </c>
       <c r="B14" t="s">
-        <v>2540</v>
+        <v>2537</v>
       </c>
       <c r="C14" t="s">
-        <v>2541</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>2542</v>
+        <v>2539</v>
       </c>
       <c r="B15" t="s">
-        <v>2543</v>
+        <v>2540</v>
       </c>
       <c r="C15" t="s">
-        <v>2544</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>2545</v>
+        <v>2542</v>
       </c>
       <c r="B16" t="s">
-        <v>2546</v>
+        <v>2543</v>
       </c>
       <c r="C16" t="s">
-        <v>2547</v>
+        <v>2544</v>
       </c>
     </row>
   </sheetData>
@@ -39951,10 +39977,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2548</v>
+        <v>2545</v>
       </c>
       <c r="B2" t="s">
-        <v>2549</v>
+        <v>2546</v>
       </c>
       <c r="D2" t="s">
         <v>1517</v>
@@ -39962,366 +39988,366 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2550</v>
+        <v>2547</v>
       </c>
       <c r="B3" t="s">
-        <v>2551</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2552</v>
+        <v>2549</v>
       </c>
       <c r="B4" t="s">
-        <v>2553</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2554</v>
+        <v>2551</v>
       </c>
       <c r="B5" t="s">
-        <v>2555</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2556</v>
+        <v>2553</v>
       </c>
       <c r="B6" t="s">
-        <v>2557</v>
+        <v>2554</v>
       </c>
       <c r="C6" t="s">
-        <v>2558</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2559</v>
+        <v>2556</v>
       </c>
       <c r="B7" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>2558</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2559</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2560</v>
+      </c>
+      <c r="D8" t="s">
         <v>2561</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
         <v>2562</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2563</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2564</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2565</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2566</v>
+        <v>2563</v>
       </c>
       <c r="B9" t="s">
-        <v>2567</v>
+        <v>2564</v>
       </c>
       <c r="C9" t="s">
-        <v>2568</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2456</v>
+        <v>2453</v>
       </c>
       <c r="B10" t="s">
-        <v>2569</v>
+        <v>2566</v>
       </c>
       <c r="C10" t="s">
-        <v>2570</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2571</v>
+        <v>2568</v>
       </c>
       <c r="B11" t="s">
-        <v>2572</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2571</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2572</v>
+      </c>
+      <c r="D12" t="s">
         <v>2573</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
         <v>2574</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2575</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2576</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2577</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2577</v>
+      </c>
+      <c r="D13" t="s">
         <v>2578</v>
       </c>
-      <c r="B13" t="s">
-        <v>2579</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2580</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2581</v>
-      </c>
       <c r="E13" t="s">
-        <v>2580</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>2582</v>
+        <v>2579</v>
       </c>
       <c r="B14" t="s">
-        <v>2583</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>2584</v>
+        <v>2581</v>
       </c>
       <c r="B15" t="s">
-        <v>2585</v>
+        <v>2582</v>
       </c>
       <c r="C15" t="s">
-        <v>2586</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>2587</v>
+        <v>2584</v>
       </c>
       <c r="B16" t="s">
-        <v>2588</v>
+        <v>2585</v>
       </c>
       <c r="C16" t="s">
-        <v>2589</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>2590</v>
+        <v>2587</v>
       </c>
       <c r="B17" t="s">
-        <v>2591</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>2592</v>
+        <v>2589</v>
       </c>
       <c r="B18" t="s">
-        <v>2593</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>2594</v>
+        <v>2591</v>
       </c>
       <c r="B19" t="s">
-        <v>2595</v>
+        <v>2592</v>
       </c>
       <c r="C19" t="s">
-        <v>2596</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>2597</v>
+        <v>2594</v>
       </c>
       <c r="B20" t="s">
-        <v>2598</v>
+        <v>2595</v>
       </c>
       <c r="C20" t="s">
-        <v>2599</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2600</v>
+        <v>2597</v>
       </c>
       <c r="B21" t="s">
-        <v>2601</v>
+        <v>2598</v>
       </c>
       <c r="C21" t="s">
-        <v>2600</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>2602</v>
+        <v>2599</v>
       </c>
       <c r="B22" t="s">
-        <v>2603</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>2604</v>
+        <v>2601</v>
       </c>
       <c r="B23" t="s">
-        <v>2605</v>
+        <v>2602</v>
       </c>
       <c r="C23" t="s">
-        <v>2606</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>2607</v>
+        <v>2604</v>
       </c>
       <c r="B24" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="B25" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2610</v>
+      </c>
+      <c r="D26" t="s">
         <v>2611</v>
       </c>
-      <c r="B26" t="s">
+      <c r="E26" t="s">
         <v>2612</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2613</v>
-      </c>
-      <c r="D26" t="s">
-        <v>2614</v>
-      </c>
-      <c r="E26" t="s">
-        <v>2615</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>2613</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2614</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2615</v>
+      </c>
+      <c r="D27" t="s">
         <v>2616</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2617</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2618</v>
-      </c>
-      <c r="D27" t="s">
-        <v>2619</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>2620</v>
+        <v>2617</v>
       </c>
       <c r="B28" t="s">
-        <v>2621</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>2622</v>
+        <v>2619</v>
       </c>
       <c r="B29" t="s">
-        <v>2623</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>2621</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2622</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D30" t="s">
         <v>2624</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2625</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2626</v>
-      </c>
-      <c r="D30" t="s">
-        <v>2627</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>2628</v>
+        <v>2625</v>
       </c>
       <c r="B31" t="s">
-        <v>2629</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>2630</v>
+        <v>2627</v>
       </c>
       <c r="B32" t="s">
-        <v>2631</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>2632</v>
+        <v>2629</v>
       </c>
       <c r="B33" t="s">
-        <v>2633</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>2634</v>
+        <v>2631</v>
       </c>
       <c r="B34" t="s">
-        <v>2635</v>
+        <v>2632</v>
       </c>
       <c r="C34" t="s">
-        <v>2636</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>2637</v>
+        <v>2634</v>
       </c>
       <c r="B35" t="s">
-        <v>2638</v>
+        <v>2635</v>
       </c>
       <c r="C35" t="s">
-        <v>2639</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>2640</v>
+        <v>2637</v>
       </c>
       <c r="B36" t="s">
-        <v>2641</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>2642</v>
+        <v>2639</v>
       </c>
       <c r="B37" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="C37" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -40329,7 +40355,7 @@
         <v>990</v>
       </c>
       <c r="B38" t="s">
-        <v>2645</v>
+        <v>2642</v>
       </c>
       <c r="C38" t="s">
         <v>330</v>
@@ -40337,230 +40363,230 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>2646</v>
+        <v>2643</v>
       </c>
       <c r="B39" t="s">
-        <v>2647</v>
+        <v>2644</v>
       </c>
       <c r="C39" t="s">
-        <v>2648</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>2649</v>
+        <v>2646</v>
       </c>
       <c r="B40" t="s">
-        <v>2650</v>
+        <v>2647</v>
       </c>
       <c r="C40" t="s">
-        <v>2651</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>2652</v>
+        <v>2649</v>
       </c>
       <c r="B41" t="s">
-        <v>2653</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>2654</v>
+        <v>2651</v>
       </c>
       <c r="B42" t="s">
-        <v>2655</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>2656</v>
+        <v>2653</v>
       </c>
       <c r="B43" t="s">
-        <v>2657</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>2658</v>
+        <v>2655</v>
       </c>
       <c r="B44" t="s">
-        <v>2659</v>
+        <v>2656</v>
       </c>
       <c r="C44" t="s">
-        <v>2660</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="B45" t="s">
-        <v>2661</v>
+        <v>2658</v>
       </c>
       <c r="C45" t="s">
-        <v>2662</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>2465</v>
+        <v>2462</v>
       </c>
       <c r="B46" t="s">
-        <v>2467</v>
+        <v>2464</v>
       </c>
       <c r="C46" t="s">
-        <v>2663</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>2664</v>
+        <v>2661</v>
       </c>
       <c r="B47" t="s">
-        <v>2665</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>2666</v>
+        <v>2663</v>
       </c>
       <c r="B48" t="s">
         <v>1256</v>
       </c>
       <c r="C48" t="s">
-        <v>2667</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>2668</v>
+        <v>2665</v>
       </c>
       <c r="B49" t="s">
-        <v>2669</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>2670</v>
+        <v>2667</v>
       </c>
       <c r="B50" t="s">
-        <v>2671</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>2672</v>
+        <v>2669</v>
       </c>
       <c r="B51" t="s">
-        <v>2673</v>
+        <v>2670</v>
       </c>
       <c r="C51" t="s">
-        <v>2674</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>2675</v>
+        <v>2672</v>
       </c>
       <c r="B52" t="s">
-        <v>2676</v>
+        <v>2673</v>
       </c>
       <c r="C52" t="s">
-        <v>2677</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>2678</v>
+        <v>2675</v>
       </c>
       <c r="B53" t="s">
-        <v>2679</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2678</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D54" t="s">
         <v>2680</v>
-      </c>
-      <c r="B54" t="s">
-        <v>2681</v>
-      </c>
-      <c r="C54" t="s">
-        <v>2682</v>
-      </c>
-      <c r="D54" t="s">
-        <v>2683</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2682</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2683</v>
+      </c>
+      <c r="D55" t="s">
         <v>2684</v>
-      </c>
-      <c r="B55" t="s">
-        <v>2685</v>
-      </c>
-      <c r="C55" t="s">
-        <v>2686</v>
-      </c>
-      <c r="D55" t="s">
-        <v>2687</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>2685</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2686</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2687</v>
+      </c>
+      <c r="D56" t="s">
         <v>2688</v>
       </c>
-      <c r="B56" t="s">
+      <c r="E56" t="s">
         <v>2689</v>
-      </c>
-      <c r="C56" t="s">
-        <v>2690</v>
-      </c>
-      <c r="D56" t="s">
-        <v>2691</v>
-      </c>
-      <c r="E56" t="s">
-        <v>2692</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>2693</v>
+        <v>2690</v>
       </c>
       <c r="B57" t="s">
-        <v>2694</v>
+        <v>2691</v>
       </c>
       <c r="C57" t="s">
-        <v>2695</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2694</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2695</v>
+      </c>
+      <c r="D58" t="s">
         <v>2696</v>
-      </c>
-      <c r="B58" t="s">
-        <v>2697</v>
-      </c>
-      <c r="C58" t="s">
-        <v>2698</v>
-      </c>
-      <c r="D58" t="s">
-        <v>2699</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>2697</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2698</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2699</v>
+      </c>
+      <c r="D59" t="s">
         <v>2700</v>
-      </c>
-      <c r="B59" t="s">
-        <v>2701</v>
-      </c>
-      <c r="C59" t="s">
-        <v>2702</v>
-      </c>
-      <c r="D59" t="s">
-        <v>2703</v>
       </c>
     </row>
   </sheetData>
@@ -40605,160 +40631,160 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2571</v>
+        <v>2568</v>
       </c>
       <c r="B2" t="s">
-        <v>2704</v>
+        <v>2701</v>
       </c>
       <c r="C2" t="s">
-        <v>2572</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2705</v>
+        <v>2702</v>
       </c>
       <c r="B3" t="s">
-        <v>2706</v>
+        <v>2703</v>
       </c>
       <c r="C3" t="s">
-        <v>2707</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2708</v>
+        <v>2705</v>
       </c>
       <c r="B4" t="s">
-        <v>2709</v>
+        <v>2706</v>
       </c>
       <c r="C4" t="s">
-        <v>2710</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>2708</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2709</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2710</v>
+      </c>
+      <c r="D5" t="s">
         <v>2711</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2712</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2713</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2714</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2715</v>
+        <v>2712</v>
       </c>
       <c r="B6" t="s">
-        <v>2716</v>
+        <v>2713</v>
       </c>
       <c r="C6" t="s">
-        <v>2717</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2718</v>
+        <v>2715</v>
       </c>
       <c r="B7" t="s">
-        <v>2719</v>
+        <v>2716</v>
       </c>
       <c r="C7" t="s">
-        <v>2720</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>2718</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2719</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2720</v>
+      </c>
+      <c r="D8" t="s">
         <v>2721</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2722</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2723</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2724</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="B9" t="s">
-        <v>2725</v>
+        <v>2722</v>
       </c>
       <c r="C9" t="s">
-        <v>2726</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2726</v>
+      </c>
+      <c r="D10" t="s">
         <v>2727</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2728</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2729</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2730</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>2728</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2730</v>
+      </c>
+      <c r="D11" t="s">
         <v>2731</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2732</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2733</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2734</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>2735</v>
+        <v>2732</v>
       </c>
       <c r="B12" t="s">
-        <v>2736</v>
+        <v>2733</v>
       </c>
       <c r="C12" t="s">
-        <v>2737</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>2735</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2737</v>
+      </c>
+      <c r="D13" t="s">
         <v>2738</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2739</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2740</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2741</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>2742</v>
+        <v>2739</v>
       </c>
       <c r="B14" t="s">
-        <v>2743</v>
+        <v>2740</v>
       </c>
       <c r="C14" t="s">
-        <v>2744</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -40766,87 +40792,87 @@
         <v>990</v>
       </c>
       <c r="B15" t="s">
-        <v>2745</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>2746</v>
+        <v>2743</v>
       </c>
       <c r="B16" t="s">
-        <v>2747</v>
+        <v>2744</v>
       </c>
       <c r="C16" t="s">
-        <v>2748</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>2749</v>
+        <v>2746</v>
       </c>
       <c r="B17" t="s">
-        <v>2750</v>
+        <v>2747</v>
       </c>
       <c r="C17" t="s">
-        <v>2751</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>2752</v>
+        <v>2749</v>
       </c>
       <c r="B18" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>2754</v>
+        <v>2751</v>
       </c>
       <c r="B19" t="s">
-        <v>2755</v>
+        <v>2752</v>
       </c>
       <c r="C19" t="s">
-        <v>2756</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>2757</v>
+        <v>2754</v>
       </c>
       <c r="B20" t="s">
-        <v>2758</v>
+        <v>2755</v>
       </c>
       <c r="C20" t="s">
-        <v>2759</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>2757</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2758</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2759</v>
+      </c>
+      <c r="D21" t="s">
         <v>2760</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E21" t="s">
         <v>2761</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2762</v>
-      </c>
-      <c r="D21" t="s">
-        <v>2763</v>
-      </c>
-      <c r="E21" t="s">
-        <v>2764</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>2765</v>
+        <v>2762</v>
       </c>
       <c r="B22" t="s">
-        <v>2766</v>
+        <v>2763</v>
       </c>
       <c r="C22" t="s">
-        <v>2767</v>
+        <v>2764</v>
       </c>
     </row>
   </sheetData>
@@ -40886,27 +40912,27 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2768</v>
+        <v>2765</v>
       </c>
       <c r="B2" t="s">
-        <v>2769</v>
+        <v>2766</v>
       </c>
       <c r="C2" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2769</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2770</v>
+      </c>
+      <c r="D3" t="s">
         <v>2771</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2772</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2773</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2774</v>
       </c>
     </row>
   </sheetData>
@@ -40946,27 +40972,27 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2772</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2773</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2774</v>
+      </c>
+      <c r="D2" t="s">
         <v>2775</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2776</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2777</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2778</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2779</v>
+        <v>2776</v>
       </c>
       <c r="B3" t="s">
-        <v>2780</v>
+        <v>2777</v>
       </c>
       <c r="C3" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
     </row>
   </sheetData>
@@ -41011,110 +41037,110 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2782</v>
+        <v>2779</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2783</v>
+        <v>2780</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2784</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2785</v>
+        <v>2782</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2786</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>2784</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2786</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>2787</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>2788</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2789</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2790</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>2791</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2796</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>2456</v>
+        <v>2453</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2569</v>
+        <v>2566</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2570</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2796</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>2797</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>2798</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2799</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>2800</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2800</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>2801</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2802</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2803</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>2804</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2803</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2804</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>2805</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2806</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2807</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>2808</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -41125,206 +41151,206 @@
         <v>234</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>2810</v>
+        <v>2807</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2811</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2815</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2814</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2815</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>2816</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>2817</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>2818</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>2819</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>2820</v>
+        <v>2817</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2821</v>
+        <v>2818</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>2822</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>2823</v>
+        <v>2820</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2824</v>
+        <v>2821</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2825</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>766</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>2827</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>2825</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2826</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>2828</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>2829</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>2830</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>2831</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>2832</v>
+        <v>2829</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>2833</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>2834</v>
+        <v>2831</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>2834</v>
+        <v>2831</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>2835</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>2836</v>
+        <v>2833</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>2837</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>2839</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>2840</v>
+        <v>2837</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>2841</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>2843</v>
+        <v>2840</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>2842</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>2843</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2844</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>2845</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>2846</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>2847</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>2848</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>2849</v>
+        <v>2846</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>2851</v>
+        <v>2848</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>2854</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>2855</v>
+        <v>2852</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>2856</v>
+        <v>2853</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
     </row>
   </sheetData>
